--- a/编程语言/Java/java集合.xlsx
+++ b/编程语言/Java/java集合.xlsx
@@ -33,12 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">线程安全
-实现线程安全的方式是在对应方法上加上synchronized关键字
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key不为null
 value不为null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>EnumMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">线程安全
+synchronized方法
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -560,121 +560,121 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
